--- a/Excel/Dijinns/dijinns.xlsx
+++ b/Excel/Dijinns/dijinns.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Dijinns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7A312F4C-8C23-4739-A427-B4AF7C5C0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA125DF6-F750-4193-A27C-AA62BDFF8470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dijinns" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
   <si>
     <t>6-PANEL TRUEFIT</t>
   </si>
@@ -363,11 +374,14 @@
   <si>
     <t>Calculating</t>
   </si>
+  <si>
+    <t>Type/Style/Color</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,10 +890,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8741,3343 +8755,3973 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="89.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="str">
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="89.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="str">
         <f>$A$1&amp;"_"&amp;D2</f>
         <v>Image_001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="3" t="str">
         <f>RIGHT("000"&amp;C2,3)</f>
         <v>001</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="str">
+        <f>SUBSTITUTE(F2,"-PANEL","P")</f>
+        <v>6P TRUEFIT</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="97.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="str">
+      <c r="I2" s="3" t="str">
+        <f>_xlfn.LET(_xlpm.SEP," ",E2&amp;_xlpm.SEP&amp;G2&amp;_xlpm.SEP&amp;H2)</f>
+        <v>6P TRUEFIT IOI Disco Black</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="97.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B66" si="0">$A$1&amp;"_"&amp;D3</f>
         <v>Image_002</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D66" si="1">RIGHT("000"&amp;C3,3)</f>
         <v>002</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E7" si="2">SUBSTITUTE(F3,"-PANEL","P")</f>
+        <v>HFT CAP</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="str">
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I66" si="3">_xlfn.LET(_xlpm.SEP," ",E3&amp;_xlpm.SEP&amp;G3&amp;_xlpm.SEP&amp;H3)</f>
+        <v>HFT CAP IOI Music is Life Black</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_003</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>HFT CAP</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="str">
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>HFT CAP IOI Modern Classics Black</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_004</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>6P TRUEFIT</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="str">
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>6P TRUEFIT IOI Music is Life Black</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_005</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>HFT CAP</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="str">
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>HFT CAP IOI Modern Classics Multi</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_006</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>5P FLAT CAP</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="85.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="str">
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5P FLAT CAP IOI Music is Life Black</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="85.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_007</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>007</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="str">
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> IOI Modern Classics Black/Multi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_008</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>008</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="74.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="str">
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> IOI Take a Hand Black</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="74.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_009</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>009</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="str">
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> IOI Take a Hand Black</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_010</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>010</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="str">
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> IOI Take a Hand Purple</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_011</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>011</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="90.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="str">
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Flo 2022 Black</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_012</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>012</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="str">
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Flo 2022 All Blue</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_013</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>013</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="87.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="str">
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Flo 2022 White</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="87.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_014</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>014</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="str">
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Flo 2022 All Red</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_015</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>015</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="91.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="str">
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Forest</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="91.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_016</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>016</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="str">
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Forest</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_017</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>017</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="87.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="str">
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Girl Light Khaki</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="87.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_018</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>018</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="str">
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Girl Dark Navy</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_019</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>019</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="str">
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Black</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_020</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>020</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="str">
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Black</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_021</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>021</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="96.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="str">
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Red</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="96.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_022</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>022</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="str">
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Asian Tiger 2.0 Red</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_023</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>023</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="str">
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Girl Tibet Orange</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_024</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>024</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="str">
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Girl Ultra Light Blue</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_025</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>025</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="str">
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Jersey 2.0 Black</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_026</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>026</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="str">
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Jersey 2.0 Black</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_027</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>027</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="99.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="str">
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Jersey 2.0 Heather Grey</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="99.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_028</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>028</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="str">
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Jersey 2.0 Heather Grey</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_029</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>029</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="str">
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Jersey 2.0 White</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_030</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>030</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="str">
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Inka DNC Jersey 2.0 White</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_031</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>031</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="88.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="str">
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Frida Linen Black</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="88.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_032</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>032</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="str">
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Frida Linen Rev. Black</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_033</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>033</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="str">
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Lucky Cat Linen Black</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_034</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>034</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="str">
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Lucky Cat Linen Rev. Black</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_035</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>035</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="str">
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC New 1.1 Orange/Heather Grey</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_036</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>036</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="str">
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC New 1.2 Cream/Khaki</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_037</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>037</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="str">
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC New 1.3 Offwhite/Wine</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_038</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>038</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="str">
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Black</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_039</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>039</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="str">
+      <c r="I40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Blue</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_040</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>040</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="str">
+      <c r="I41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Beige</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_041</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>041</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="str">
+      <c r="I42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Red</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_042</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>042</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="str">
+      <c r="I43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Black</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_043</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>043</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="str">
+      <c r="I44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Blue</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_044</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>044</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="str">
+      <c r="I45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Ox-Diamond Black</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_045</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>045</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="str">
+      <c r="I46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Ox-Diamond Blue</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_046</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>046</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="str">
+      <c r="I47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Beige</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_047</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>047</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="96.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="str">
+      <c r="I48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Ox-Diamond Red</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="96.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_048</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>048</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="str">
+      <c r="I49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Ox-Diamond Beige</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_049</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>049</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="str">
+      <c r="I50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DNC Ox-Diamond Red</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_050</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>050</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="str">
+      <c r="I51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Dark Denim</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_051</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>051</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="str">
+      <c r="I52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Light Denim</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_052</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>052</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="103.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="str">
+      <c r="I53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Dark Denim</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="103.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_053</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>53</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>053</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="str">
+      <c r="I54" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Light Denim</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_054</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>054</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="str">
+      <c r="I55" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Khaki</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_055</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>55</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>055</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="str">
+      <c r="I56" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Khaki</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_056</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>56</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>056</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="108.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="str">
+      <c r="I57" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Black</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="108.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_057</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>57</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>057</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="92.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="str">
+      <c r="I58" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Black</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="92.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_058</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>058</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="str">
+      <c r="I59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Indigo</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_059</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>59</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>059</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="str">
+      <c r="I60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> New Diamond Indigo</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_060</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>060</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="str">
+      <c r="I61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Linen Blue</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_061</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>061</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="str">
+      <c r="I62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Linen White</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_062</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>62</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>062</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="92.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="str">
+      <c r="I63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> 3 Tone Linen Blue</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="92.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_063</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>63</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>063</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="str">
+      <c r="I64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> 3 Tone Linen White</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_064</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>064</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="str">
+      <c r="I65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Linen Navy</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Image_065</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>65</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>065</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="str">
-        <f t="shared" ref="B67:B130" si="2">$A$1&amp;"_"&amp;D67</f>
+      <c r="I66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Linen Black</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="str">
+        <f t="shared" ref="B67:B130" si="4">$A$1&amp;"_"&amp;D67</f>
         <v>Image_066</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67" s="4" t="str">
-        <f t="shared" ref="D67:D130" si="3">RIGHT("000"&amp;C67,3)</f>
+      <c r="D67" s="3" t="str">
+        <f t="shared" ref="D67:D130" si="5">RIGHT("000"&amp;C67,3)</f>
         <v>066</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I67" s="3" t="str">
+        <f t="shared" ref="I67:I130" si="6">_xlfn.LET(_xlpm.SEP," ",E67&amp;_xlpm.SEP&amp;G67&amp;_xlpm.SEP&amp;H67)</f>
+        <v xml:space="preserve"> 3 Tone Linen Navy</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_067</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>67</v>
       </c>
-      <c r="D68" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D68" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>067</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="95.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I68" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 3 Tone Linen Black</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="95.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_068</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>68</v>
       </c>
-      <c r="D69" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D69" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>068</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cord Mountains Wine</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_069</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>069</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cord Mountains Beige</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_070</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>070</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cord Mountains Black</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_071</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>71</v>
       </c>
-      <c r="D72" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>071</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cord Mountains Green</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_072</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="D73" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>072</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cord Mountains Navy</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_073</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>73</v>
       </c>
-      <c r="D74" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>073</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I74" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics Multi Rose</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_074</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>74</v>
       </c>
-      <c r="D75" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>074</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I75" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics Multi Orange</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_075</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>075</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I76" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics Multi Khaki 2.0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_076</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>076</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics Multi Wine</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_077</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>77</v>
       </c>
-      <c r="D78" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>077</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" ht="77.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics Black</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="77.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_078</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>78</v>
       </c>
-      <c r="D79" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>078</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" ht="84.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Mix Fabrics White</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="84.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_079</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D80" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>079</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Batiquepeak 2.0 Stone</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_080</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>080</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I81" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Batiquepeak 2.0 Navy</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_081</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D82" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>081</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I82" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Batiquepeak 2.0 Black</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_082</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D83" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>082</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I83" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Aloha Rev. Black</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_083</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>83</v>
       </c>
-      <c r="D84" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>083</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I84" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Aloha Black</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_084</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>084</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" ht="84.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Aloha Rev. Khaki</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="84.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_085</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>085</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Aloha Khaki</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_086</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>86</v>
       </c>
-      <c r="D87" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D87" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>086</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Rev. Beige</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_087</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>087</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" ht="83.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Rev. Red</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="83.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_088</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>88</v>
       </c>
-      <c r="D89" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>088</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Rev. Black</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_089</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>89</v>
       </c>
-      <c r="D90" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>089</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I90" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Rev. Grey</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_090</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>90</v>
       </c>
-      <c r="D91" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D91" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>090</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Black</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_091</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>91</v>
       </c>
-      <c r="D92" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>091</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I92" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Inka Delta Grey</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_092</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>92</v>
       </c>
-      <c r="D93" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>092</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I93" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Washed Aztek White</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_093</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>93</v>
       </c>
-      <c r="D94" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>093</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="H94" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I94" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Washed Aztek Navy</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="82.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_094</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>94</v>
       </c>
-      <c r="D95" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D95" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>094</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I95" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Rubber Washed Aztek Black</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_095</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="D96" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D96" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>095</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="H96" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="98.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I96" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Beer &amp; Coffee Grey/Heather Grey</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="98.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_096</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>96</v>
       </c>
-      <c r="D97" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>096</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I97" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Seed Royal/Khaki</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_097</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>97</v>
       </c>
-      <c r="D98" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>097</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I98" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Zombie Brown/Red</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_098</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>98</v>
       </c>
-      <c r="D99" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D99" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>098</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="G99" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I99" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Gelato Brown/Rose</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_099</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>99</v>
       </c>
-      <c r="D100" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>099</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I100" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Tomato Soup Grey</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_100</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>100</v>
       </c>
-      <c r="D101" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D101" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="G101" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I101" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Avocado Navy</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_101</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>101</v>
       </c>
-      <c r="D102" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D102" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="G102" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="H102" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Coffee Black/Turquoise</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_102</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>102</v>
       </c>
-      <c r="D103" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D103" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="G103" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="H103" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" ht="93.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I103" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Croissant Black</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="93.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_103</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>103</v>
       </c>
-      <c r="D104" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D104" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="G104" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="H104" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I104" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Food Bacon Khaki</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_107</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>107</v>
       </c>
-      <c r="D105" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D105" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="G105" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="H105" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I105" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Brown</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_108</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>108</v>
       </c>
-      <c r="D106" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D106" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="H106" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I106" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Brown</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_109</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>109</v>
       </c>
-      <c r="D107" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D107" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="G107" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I107" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club Black</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_110</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>110</v>
       </c>
-      <c r="D108" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D108" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="H108" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I108" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club Slate</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_111</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>111</v>
       </c>
-      <c r="D109" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G109" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" ht="97.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I109" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Grey</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="97.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_112</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>112</v>
       </c>
-      <c r="D110" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D110" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="G110" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="H110" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I110" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Grey</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_113</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>113</v>
       </c>
-      <c r="D111" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D111" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="F111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="G111" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="H111" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I111" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club Sand</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_114</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>114</v>
       </c>
-      <c r="D112" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="G112" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="H112" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I112" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club Wine</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_115</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>115</v>
       </c>
-      <c r="D113" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D113" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="F113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="G113" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" ht="98.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I113" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Navy</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="98.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_116</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>116</v>
       </c>
-      <c r="D114" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D114" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="G114" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="H114" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I114" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Glencheck Navy</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_117</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>117</v>
       </c>
-      <c r="D115" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D115" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="G115" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="H115" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" ht="101.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I115" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club #2 Dark Brown</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="101.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_118</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>118</v>
       </c>
-      <c r="D116" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D116" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="G116" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="H116" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I116" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club #2 Olive</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_119</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>119</v>
       </c>
-      <c r="D117" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D117" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="F117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="G117" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="H117" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I117" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Lucky Cat Linen Black</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_120</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>120</v>
       </c>
-      <c r="D118" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D118" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="H118" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I118" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Monochrome Black</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_121</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>121</v>
       </c>
-      <c r="D119" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D119" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="G119" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="H119" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I119" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Nothing Club #2 Navy</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_122</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>122</v>
       </c>
-      <c r="D120" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D120" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="G120" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="H120" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I120" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> M-Ribstop Black</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_123</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>123</v>
       </c>
-      <c r="D121" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D121" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="G121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="H121" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I121" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> M-Ribstop Olive</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_124</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>124</v>
       </c>
-      <c r="D122" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D122" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="G122" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="H122" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I122" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Suelin Black</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_125</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>125</v>
       </c>
-      <c r="D123" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D123" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="G123" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="H123" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I123" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Linen Black</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_126</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>126</v>
       </c>
-      <c r="D124" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D124" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="G124" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="H124" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I124" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cut&amp;Sew Charcoal</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_127</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>127</v>
       </c>
-      <c r="D125" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D125" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="F125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="G125" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="H125" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I125" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Cut&amp;Sew Heather Grey</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_128</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>128</v>
       </c>
-      <c r="D126" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D126" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="G126" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I126" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Suelin Sand</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_129</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>129</v>
       </c>
-      <c r="D127" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D127" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="G127" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="H127" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" ht="94.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I127" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Linen Grey</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="94.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_130</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>130</v>
       </c>
-      <c r="D128" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D128" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="F128" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="G128" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="H128" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I128" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Linen Black</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_131</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>131</v>
       </c>
-      <c r="D129" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D129" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="F129" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="G129" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="H129" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="I129" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Linen Grey</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Image_132</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>132</v>
       </c>
-      <c r="D130" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="D130" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="F130" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="G130" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="H130" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="str">
-        <f t="shared" ref="B131:B151" si="4">$A$1&amp;"_"&amp;D131</f>
+      <c r="I130" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Suelin Grey</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="str">
+        <f t="shared" ref="B131:B151" si="7">$A$1&amp;"_"&amp;D131</f>
         <v>Image_133</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>133</v>
       </c>
-      <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D151" si="5">RIGHT("000"&amp;C131,3)</f>
+      <c r="D131" s="3" t="str">
+        <f t="shared" ref="D131:D151" si="8">RIGHT("000"&amp;C131,3)</f>
         <v>133</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F131" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="G131" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="H131" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" ht="97.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I131" s="3" t="str">
+        <f t="shared" ref="I131:I151" si="9">_xlfn.LET(_xlpm.SEP," ",E131&amp;_xlpm.SEP&amp;G131&amp;_xlpm.SEP&amp;H131)</f>
+        <v xml:space="preserve"> Linen Navy</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="97.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_134</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <v>134</v>
       </c>
-      <c r="D132" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D132" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="F132" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="G132" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="H132" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I132" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Linen Navy</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_135</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>135</v>
       </c>
-      <c r="D133" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D133" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="F133" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="G133" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="H133" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I133" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Hippy Canvas Mudd</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_136</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>136</v>
       </c>
-      <c r="D134" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D134" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="G134" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="H134" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I134" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Hippy Canvas Sand</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_137</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>137</v>
       </c>
-      <c r="D135" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D135" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="F135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="G135" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="H135" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I135" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Hippy Canvas Black</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_138</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>138</v>
       </c>
-      <c r="D136" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D136" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="F136" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="G136" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="H136" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I136" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Rubber Aztek Black</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_139</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>139</v>
       </c>
-      <c r="D137" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D137" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="F137" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="G137" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="H137" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I137" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Rubber Aztek Wine</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_140</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>140</v>
       </c>
-      <c r="D138" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D138" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="F138" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="G138" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="H138" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" ht="77.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I138" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Aztek Crown Black</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="77.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_141</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>141</v>
       </c>
-      <c r="D139" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D139" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="F139" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="G139" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="H139" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I139" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Koi Linen Black</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_142</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>142</v>
       </c>
-      <c r="D140" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D140" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="F140" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="G140" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="H140" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I140" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Rubber Aztek Navy</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_143</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>143</v>
       </c>
-      <c r="D141" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D141" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="F141" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="G141" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="H141" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I141" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Rubber Aztek White</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_144</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>144</v>
       </c>
-      <c r="D142" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D142" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="F142" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="G142" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="H142" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I142" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Aztek Crown Dark Red</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_145</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>145</v>
       </c>
-      <c r="D143" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D143" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="F143" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="G143" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="H143" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" ht="73.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I143" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Koi Linen Rev. Black</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="73.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_146</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>146</v>
       </c>
-      <c r="D144" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D144" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="F144" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="G144" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="H144" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I144" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Honey Knit Black</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_147</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>147</v>
       </c>
-      <c r="D145" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D145" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="F145" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="G145" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="H145" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I145" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Honey Knit Navy</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_148</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="3">
         <v>148</v>
       </c>
-      <c r="D146" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D146" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="F146" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="G146" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="H146" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" ht="81.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I146" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Peacock Linen Black</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="81.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_149</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>149</v>
       </c>
-      <c r="D147" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D147" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="F147" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="G147" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="H147" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I147" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> CP Asian Tiger Black</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_150</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <v>150</v>
       </c>
-      <c r="D148" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D148" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="G148" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="H148" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I148" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Azteck Black</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_151</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>151</v>
       </c>
-      <c r="D149" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D149" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="F149" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="G149" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I149" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Peacock Linen Multi</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_152</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>152</v>
       </c>
-      <c r="D150" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D150" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="F150" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="G150" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I150" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Peacock Linen Rev. Black</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Image_153</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>153</v>
       </c>
-      <c r="D151" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="D151" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="F151" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="G151" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="H151" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="I151" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> CP Asian Tiger Navy</v>
       </c>
     </row>
   </sheetData>
